--- a/오류분석/정리/2022_06_15_Labeling_오류분석.xlsx
+++ b/오류분석/정리/2022_06_15_Labeling_오류분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B04DA9-CAED-45EF-840F-6E108E13DE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E53D64-513E-4A09-9513-7969C4F60D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="172">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,19 +113,31 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">산리오는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>캐쉬</t>
+      <t xml:space="preserve">수많은 가수가 ‘유 레이즈 미 업’을 불렀지만 이 노래를 여전히 미국의 팝페라 보컬 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">조시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그로번</t>
     </r>
     <r>
       <rPr>
@@ -135,7 +147,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">는 30명 넘는 </t>
+      <t>(32)의 것으로 기억하는 이가 많다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책/서적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선생님께서 그 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>네루다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
     </r>
     <r>
       <rPr>
@@ -147,7 +195,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>헬로키티</t>
+      <t>읽어 가시면서</t>
     </r>
     <r>
       <rPr>
@@ -157,208 +205,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>의 친구 중 하나일 뿐이고, 지금까지 판매한 캐쉬 상품 수도 많지 않다"고 말했다."</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조세(tax) 혹은
-통화(currency) 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>캐릭터명은 모두 '사람 이름'으로 태깅되어야 합니다. 
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>캐쉬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' 이후에 등장하는 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>헬로키티</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'는 사람 이름으로 정답이 태깅되어 있습니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">수많은 가수가 ‘유 레이즈 미 업’을 불렀지만 이 노래를 여전히 미국의 팝페라 보컬 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">조시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그로번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(32)의 것으로 기억하는 이가 많다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책/서적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">선생님께서 그 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>네루다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>읽어 가시면서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> 어떤 점이 그렇게 좋으시던가요?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>네루다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'의 뒤에 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>읽어 가시면서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'를 보았을 시 책/작품명으로 분류되는 것이 맞습니다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,43 +240,6 @@
   <si>
     <t>태깅 X 혹은
 사건/사고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마스터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 플랜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 보상 정책을 의미하는 것으로 보입니다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -926,19 +736,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">이날 행사에는 터를 제공한 김영종 종로구청장, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>김춘진</t>
+      <t xml:space="preserve">맨 위쪽에 남쪽 김택수, 북쪽 리근상 선수 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서명이</t>
     </r>
     <r>
       <rPr>
@@ -948,19 +758,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 정범구 민주당 의원, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>박홍섭</t>
+      <t>, 한반도 오른편 위와 중간에는 북쪽 리분희·유순복 선수의 서명이 보인다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"첨엔 이 작품이 대체 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왜</t>
     </r>
     <r>
       <rPr>
@@ -970,19 +786,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 마포구청장, 산악인 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엄홍길</t>
+      <t xml:space="preserve"> 예술인지 몰랐어요.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이유를 따지고 묻고자하는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왜</t>
     </r>
     <r>
       <rPr>
@@ -992,213 +814,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 대장, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>김철웅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 요넥스코리아 대표, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>권택명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 외한은행 나눔재단 상근이사, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>박점식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 천지세무법인 회장 등 후원자 200여 명이 참석했다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">다른 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>김춘진, 박홍섭, 엄홍길, 김철웅, 박점식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">은 모두 사람 이름으로 올바르게 태깅되었으나,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>권택명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 기관/단체로 태깅되어 있습니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">맨 위쪽에 남쪽 김택수, 북쪽 리근상 선수 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>서명이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 한반도 오른편 위와 중간에는 북쪽 리분희·유순복 선수의 서명이 보인다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"첨엔 이 작품이 대체 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>왜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 예술인지 몰랐어요.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이유를 따지고 묻고자하는 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>왜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'로 사용되어 사람 이름과는 관계가 없습니다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 이~ 최상위 천사가 아닐까 생각 하고 있는 거고요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1391,79 +1008,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 정답 오류</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">앞에 언급된 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교육철학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">은 학문 분야로 태깅되었으나, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경영철학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">은 태깅되어 있지 않습니다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>경영철학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 또한 학문 분야로써 태깅되어야 맞는 것으로 생각됩니다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2028,56 +1572,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">위 문장에서 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>당산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 어떠한 약속 혹은 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>당산제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'라는 제사로 사용되어진 것으로 보입니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">지난 3월부터 시작된 </t>
     </r>
     <r>
@@ -2912,79 +2406,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>히비커스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">와 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>난</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 모두 식물 명칭이지만 뒤의 따라오는 서술어 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>~먹었지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'로 인해
-음식 명칭 유형으로 분류되는 것이 맞는 것으로 보입니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>미녀</t>
     </r>
     <r>
@@ -3313,6 +2734,722 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>천구백팔십칠년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 확실히 날짜/기간으로 태깅되어야 합니다.
+정답 태깅을 어떤 기준과 세분류를 통해 문명/문화에 관한 대분류로 태깅하였는지 불명확합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 학문 분야도 아니며,
+특정 광역시/특별시를 지칭하지 않았으므로 태깅하지 않는 것이 올바른 것으로 생각됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">뭐 이~ 최상위 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>천사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 아닐까 생각 하고 있는 거고요.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">위 문장에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 어떠한 약속 혹은 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>당산제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'라는 제사로 사용되어진 것으로 보입니다.
+교수님 Comment: 당산제라면 사건/사고/행사로 태깅되어야 옳은 것이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>히비커스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">와 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 모두 식물 명칭이지만 뒤의 따라오는 서술어 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~먹었지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'로 인해
+음식 명칭 유형으로 분류되는 것이 맞는 것으로 보입니다.
+교수님 Comment: '난'은 '나는'의 준말 일 것이다. 따라서 난은 식물 명칭이 아니고 현재 정답이 맞다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마스터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 플랜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 보상 정책을 의미하는 것으로 보입니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+교수님 Commnet: 태깅 안되는 것이 맞을 것이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>네루다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'의 뒤에 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>읽어 가시면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'를 보았을 시 책/작품명으로 분류되는 것이 맞습니다.
+교수님 Comment: '네루다' 라는 사람이 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산리오는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐쉬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">는 30명 넘는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>헬로키티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 친구 중 하나일 뿐이고, 지금까지 판매한 캐쉬 상품 수도 많지 않다"고 말했다."</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창작물/
+드라마(만화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터명은 모두 '사람 이름'으로 태깅되어야 합니다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐쉬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">는 사람 이름으로 태깅되었으나, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>헬로키티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 창작물/드라마(만화)로 태깅된 것으로 보입니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이날 행사에는 터를 제공한 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김영종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 종로구청장, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김춘진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 정범구 민주당 의원, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박홍섭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 마포구청장, 산악인 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엄홍길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 대장, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김철웅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 요넥스코리아 대표, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>권택명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 외한은행 나눔재단 상근이사, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박점식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 천지세무법인 회장 등 후원자 200여 명이 참석했다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다른 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김영종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김춘진, 박홍섭, 엄홍길, 김철웅, 박점식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 모두 사람 이름으로 올바르게 태깅되었으나,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>권택명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 기관/단체로 태깅되어 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">앞에 언급된 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교육철학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 학문 분야로 태깅되었으나, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경영철학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 태깅되어 있지 않습니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경영철학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 또한 학문 분야로써 태깅되어야 맞는 것으로 생각됩니다.
+교수님 Commnet: 교육철학, 경영철학은 모두 학문 분야로 태깅되지 않는 것이 맞다. (~철학)
+재훈 추가 조사 : FD_philosophy 가 있는 데 이는 철학 관련 학문 분야 및 학파를 의미.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">위의 문장에서 이~ </t>
     </r>
     <r>
@@ -3360,22 +3497,1237 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>이라면 정답 태깅은 틀렸습니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>천구백팔십칠년</t>
+      <t>이라면 정답 태깅은 틀렸습니다.
+교수님 Comment: 풀문(Full Moon) : 보름달을 뜻 하는 것이며 틀리지 않았다.
+재훈 추가 조사 : EXID 미니 앨범 'Full Moon' 일 수도 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>동물 명칭과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 관련된 오류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초미세먼지가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>신체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>에 미치는 영향에 대한 의학적 조사도 시급하다는 지적이 나온다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체 부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">신체 부위로 분류되어 태깅되기 위해선 동물이나 사람 몸의 한 부분(신체 부위) 명칭이 되어야 합니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라는 단어 자체가 태깅되는 것은 옳지 못 한것으로 판단됩니다.
+말뭉치에서 확인 가능한 다른 문장에서는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'에 개체명 태깅을 하지 않았습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">복숭아밭은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>고개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 너머에 있었다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>위의 문장에서 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>고개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'는 언덕을 의미하기 때문에 신체 부위로 태깅하는 것은 틀렸습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">전남 순천 출신인 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 교수가 검찰총장이 되면 노무현 정부 때인 김종빈 전 검찰총장(2005년 4∼10월) 이후 12년 만의 호남 출신 검찰총장이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>동물의 한 종류인 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'가 아닌 사람의 성 씨를 의미하는 것으로 생각됩니다.
+따라서 동물의 명칭이 아닌 사람 이름으로 태깅되어야 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">올 예 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수 잎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+:스포츠 관련
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">잎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:식물 명칭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수 잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+: 스포츠 관련</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">월계수 잎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 식물 명칭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“유망주 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>싹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 죽일것” 찬반 엇갈려</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>위 문장에서는 유망주를 모두 죽일 것이라는 의미로 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>싹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'이 사용되었습니다.
+따라서 식물 명칭으로 정답을 태깅하는 것은 틀렸습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>물질/금속/원소/화학물질 명칭과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 관련된 오류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>북</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>핵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>에 같이 대응을 하면서.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">만약에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>핵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>폭탄이 떨어졌다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>위의 문장에서는 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>핵</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폭탄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' 의 단어에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>핵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 물질 명칭으로 태깅되었고, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폭탄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 태깅되지 않았습니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>핵폭탄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 전체에 무기 명칭을 태깅하는 것이 옳다고 생각됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">위의 문장의 '핵'은 핵탄두를 의미 합니다. 따라서 무기 명칭으로 정답이 태깅되는 것이 맞습니다.
+아래의 또 다른 문장에서 북핵의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>핵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>무기 명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 태깅되었습니다.
+******** 조사 해야됨 : MT쪽 에러 케이스들 계속 보는데, 핵이 MT에 붙는 경우가 더 많은거 같음
+다른 예)
+'그는 지난 6일 프랑스에서 북</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>핵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 대한 질문을 받자 \"북한의 지난 수개월간 행동은 엄청나게 도발적(Provocative)\"이라며 \"우리는 북한의 도발에 대해 보상하려는 정책을 계속할 생각이 없다\"고 했다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">뒷바람이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2.0m/초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>를 넘기지 않았기 때문에 공식 기록이 된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시간 표현과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 관련된 오류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.0m/초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 속도를 의미 합니다.
+시간 표현으로 정답을 태깅하는 것이 아닌 속도 표현으로 태깅하는 것이 옳습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이론/법칙/사상/원리/의학 요법과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 관련된 오류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">큰 불은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2시간 반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 만인 오후 1시경 꺼졌다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론/법칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>위 문장에서 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2시간 반'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 시간 표현으로 정답을 태깅하는 것이 맞습니다.
+어떠한 기준으로 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2시간 반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'이 이론/법칙 유형으로 분류되었는지 알 수 없습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>건축물/창작물/예술품/교통수단과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 관련된 오류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>조선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 3사 차입금 5년만에 10조→24조원으로 늘어</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통 수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 배를 설계하여 만드는 것을 뜻 하는 것으로 보입니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>최근 세종문화회관 대극장에서 개막해 연일 매진행진을 이어가고 있는 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>모차르트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>&gt;는 대표적인 ‘비엔나(오스트리아) 뮤지컬’이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연극/공연명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">위 문장에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모차르트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 작곡가를 뜻 하는 것이 아닌 뮤지컬을 의미합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>검찰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">이 무슨 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>국정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 외주 기관도 아니고…\"라고 했다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부 기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">위 문장에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 건물 명칭으로 정답이 태깅되었습니다.
+하지만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 정부/행정 기관에 속하기 때문에 태깅의 수정이 필요합니다.
+비교 대상으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 앞에 언급된 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검찰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 정부 기관으로 정답이 태깅되었습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 국정원 다른 문장에서 다 'AF'로 되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이날 토론에서는 “우리도 11년간 학교에서 반장 선거, 학생회장 선거를 치러봤기 때문에 민주주의를 아는데, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왜</t>
     </r>
     <r>
       <rPr>
@@ -3385,23 +4737,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>은 확실히 날짜/기간으로 태깅되어야 합니다.
-정답 태깅을 어떤 기준과 세분류를 통해 문명/문화에 관한 대분류로 태깅하였는지 불명확합니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시</t>
+      <t xml:space="preserve"> 대통령 선거, 교육감 선거는 못 하는 것이냐”며 안건을 채택하자는 의견이 많았다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"왜"</t>
     </r>
     <r>
       <rPr>
@@ -3411,8 +4762,181 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>는 학문 분야도 아니며,
-특정 광역시/특별시를 지칭하지 않았으므로 태깅하지 않는 것이 올바른 것으로 생각됩니다.</t>
+      <t xml:space="preserve">는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도대체 왜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">와 같은 의미로 사용된 것으로 보입니다. (14번과 동일한 유형)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"왜"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 사람 이름으로 태깅되어서는 안됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>아래의 예제 문장들과 같이
+'"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수 잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"에 대한 정답 태깅이 일관성 없습니다.
+문장 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이에요 : 태깅 X
+문장 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : CV(스포츠 관련)
+문장 3. 그래서 쏘스가 요 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수 잎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 위에다 얹으시면 안 돼요 : CV(음식 재료)
+문장 4. 올 예 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월계수(스포츠 관련) 잎(식물)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3421,7 +4945,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3509,6 +5036,39 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3868,186 +5428,206 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4329,15 +5909,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:H141"/>
+  <dimension ref="C2:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="9" style="32"/>
     <col min="5" max="5" width="48.625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
@@ -4346,1675 +5927,2583 @@
   <sheetData>
     <row r="2" spans="3:8" ht="17.25" thickBot="1"/>
     <row r="3" spans="3:8">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" spans="3:8" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="35.1" customHeight="1">
+      <c r="C6" s="44">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="21" customHeight="1" thickBot="1">
+      <c r="C7" s="58"/>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="3:8" ht="63.75" customHeight="1">
+      <c r="C8" s="44">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C9" s="45"/>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+    </row>
+    <row r="10" spans="3:8" ht="63.75" customHeight="1">
+      <c r="C10" s="44">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="49.5" customHeight="1" thickBot="1">
+      <c r="C11" s="45"/>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="3:8" ht="69.75" customHeight="1">
+      <c r="C12" s="44">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C13" s="45"/>
+      <c r="D13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="3:8" ht="53.25" customHeight="1">
+      <c r="C14" s="44">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="C15" s="45"/>
+      <c r="D15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="3:8" ht="68.25" customHeight="1">
+      <c r="C16" s="44">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="63" customHeight="1" thickBot="1">
+      <c r="C17" s="45"/>
+      <c r="D17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+    </row>
+    <row r="18" spans="3:8" ht="44.25" customHeight="1">
+      <c r="C18" s="44">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C19" s="45"/>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="3:8" ht="90" customHeight="1">
+      <c r="C20" s="44">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C21" s="45"/>
+      <c r="D21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="3:8" ht="57.75" customHeight="1">
+      <c r="C22" s="44">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C23" s="45"/>
+      <c r="D23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="3:8" ht="101.25" customHeight="1">
+      <c r="C24" s="44">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="46.5" customHeight="1" thickBot="1">
+      <c r="C25" s="45"/>
+      <c r="D25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="3:8" ht="41.25" customHeight="1">
+      <c r="C26" s="49">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="47.25" customHeight="1" thickBot="1">
+      <c r="C27" s="50"/>
+      <c r="D27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="66"/>
+    </row>
+    <row r="28" spans="3:8" ht="35.1" customHeight="1">
+      <c r="C28" s="44">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C29" s="45"/>
+      <c r="D29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" spans="3:8" ht="48.75" customHeight="1">
+      <c r="C30" s="44">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C31" s="45"/>
+      <c r="D31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="3:8" ht="80.25" customHeight="1">
+      <c r="C32" s="44">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C33" s="45"/>
+      <c r="D33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="3:8" ht="89.25" customHeight="1">
+      <c r="C34" s="44">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C35" s="45"/>
+      <c r="D35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="3:8" ht="47.25" customHeight="1">
+      <c r="C36" s="44">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C37" s="45"/>
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="3:8" ht="101.25" customHeight="1">
+      <c r="C38" s="44">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
+      <c r="C39" s="45"/>
+      <c r="D39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="66"/>
+    </row>
+    <row r="40" spans="3:8" ht="60.75" customHeight="1">
+      <c r="C40" s="44">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C41" s="45"/>
+      <c r="D41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="3:8" ht="35.1" customHeight="1">
+      <c r="C42" s="44">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C43" s="45"/>
+      <c r="D43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="3:8" ht="35.1" customHeight="1">
+      <c r="C44" s="44">
+        <v>20</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
+      <c r="C45" s="45"/>
+      <c r="D45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="G3" s="47" t="s">
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="61"/>
+    </row>
+    <row r="46" spans="3:8" ht="16.5" customHeight="1">
+      <c r="C46" s="34"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="35"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="3:8" s="1" customFormat="1">
+      <c r="C49" s="36"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="41"/>
+    </row>
+    <row r="52" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="57"/>
+    </row>
+    <row r="53" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C53" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="61.5" customHeight="1">
+      <c r="C54" s="44">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="C55" s="58"/>
+      <c r="D55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="61"/>
+    </row>
+    <row r="56" spans="3:8" ht="48" customHeight="1">
+      <c r="C56" s="44">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="85.5" customHeight="1" thickBot="1">
+      <c r="C57" s="45"/>
+      <c r="D57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="35"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="41"/>
+    </row>
+    <row r="64" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="57"/>
+    </row>
+    <row r="65" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C65" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="33" customHeight="1">
+      <c r="C66" s="44">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="33" customHeight="1" thickBot="1">
+      <c r="C67" s="45"/>
+      <c r="D67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="35"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="C73" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="41"/>
+    </row>
+    <row r="74" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" s="57"/>
+    </row>
+    <row r="75" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C75" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="59.25" customHeight="1">
+      <c r="C76" s="44">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="65.25" customHeight="1" thickBot="1">
+      <c r="C77" s="45"/>
+      <c r="D77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="48"/>
-    </row>
-    <row r="4" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="G4" s="49" t="s">
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
+    </row>
+    <row r="78" spans="3:8" ht="33" customHeight="1">
+      <c r="C78" s="44">
+        <v>2</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="C79" s="45"/>
+      <c r="D79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="66"/>
+    </row>
+    <row r="80" spans="3:8" ht="64.5" customHeight="1">
+      <c r="C80" s="44">
+        <v>2</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="42" customHeight="1" thickBot="1">
+      <c r="C81" s="45"/>
+      <c r="D81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="66"/>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="35"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" s="43"/>
+    </row>
+    <row r="89" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C89" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="49.5">
+      <c r="C90" s="44">
+        <v>1</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="97.5" customHeight="1" thickBot="1">
+      <c r="C91" s="45"/>
+      <c r="D91" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
+    </row>
+    <row r="92" spans="3:8" ht="45" customHeight="1">
+      <c r="C92" s="44">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="60" customHeight="1" thickBot="1">
+      <c r="C93" s="45"/>
+      <c r="D93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="48"/>
+    </row>
+    <row r="94" spans="3:8" ht="45" customHeight="1">
+      <c r="C94" s="44">
+        <v>3</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="3:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C5" s="20" t="s">
+      <c r="F94" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="33" customHeight="1" thickBot="1">
+      <c r="C95" s="45"/>
+      <c r="D95" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="48"/>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="35"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="3:8">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="3:8">
+      <c r="C101" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" s="41"/>
+    </row>
+    <row r="102" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H102" s="43"/>
+    </row>
+    <row r="103" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C103" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F103" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="33" customHeight="1">
+      <c r="C104" s="44">
+        <v>1</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="33" customHeight="1" thickBot="1">
+      <c r="C105" s="45"/>
+      <c r="D105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="48"/>
+    </row>
+    <row r="106" spans="3:8" ht="33" customHeight="1">
+      <c r="C106" s="44">
+        <v>2</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="42" customHeight="1" thickBot="1">
+      <c r="C107" s="45"/>
+      <c r="D107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="48"/>
+    </row>
+    <row r="108" spans="3:8" ht="43.5" customHeight="1">
+      <c r="C108" s="44">
+        <v>3</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
+      <c r="C109" s="45"/>
+      <c r="D109" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="48"/>
+    </row>
+    <row r="110" spans="3:8">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="3:8">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="3:8">
+      <c r="C112" s="35"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="3:8">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="3:8">
+      <c r="C115" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" s="41"/>
+    </row>
+    <row r="116" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116" s="43"/>
+    </row>
+    <row r="117" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C117" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="85.5" customHeight="1">
+      <c r="C118" s="44">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="36" customHeight="1" thickBot="1">
+      <c r="C119" s="45"/>
+      <c r="D119" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="48"/>
+    </row>
+    <row r="120" spans="3:8">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="3:8">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="3:8">
+      <c r="C122" s="35"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="3:8">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="3:8" ht="17.25" thickBot="1">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="3:8">
+      <c r="C125" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" s="41"/>
+    </row>
+    <row r="126" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H126" s="43"/>
+    </row>
+    <row r="127" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C127" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="59.25" customHeight="1">
+      <c r="C128" s="44">
+        <v>1</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" ht="52.5" customHeight="1" thickBot="1">
+      <c r="C129" s="45"/>
+      <c r="D129" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="48"/>
+    </row>
+    <row r="130" spans="3:9" ht="44.1" customHeight="1">
+      <c r="C130" s="44">
+        <v>2</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" ht="44.1" customHeight="1" thickBot="1">
+      <c r="C131" s="45"/>
+      <c r="D131" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="48"/>
+    </row>
+    <row r="132" spans="3:9">
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="3:9">
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="3:9">
+      <c r="C134" s="35"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="135" spans="3:9">
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="3:9" ht="17.25" thickBot="1">
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="3:9">
+      <c r="C137" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" s="41"/>
+    </row>
+    <row r="138" spans="3:9" ht="17.25" thickBot="1">
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" s="43"/>
+    </row>
+    <row r="139" spans="3:9" ht="17.25" thickBot="1">
+      <c r="C139" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" ht="39.950000000000003" customHeight="1">
+      <c r="C140" s="44">
+        <v>1</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C141" s="45"/>
+      <c r="D141" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="48"/>
+    </row>
+    <row r="142" spans="3:9" ht="69.75" customHeight="1">
+      <c r="C142" s="49">
+        <v>2</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G142" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" ht="76.5" customHeight="1" thickBot="1">
+      <c r="C143" s="50"/>
+      <c r="D143" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="53"/>
+    </row>
+    <row r="144" spans="3:9" ht="94.5" customHeight="1">
+      <c r="C144" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H144" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I144" s="31"/>
+    </row>
+    <row r="145" spans="3:14" ht="121.5" customHeight="1" thickBot="1">
+      <c r="C145" s="50"/>
+      <c r="D145" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="53"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="3:14" ht="33" customHeight="1">
+      <c r="C146" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G146" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="3:14" ht="42" customHeight="1" thickBot="1">
+      <c r="C147" s="50"/>
+      <c r="D147" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="53"/>
+    </row>
+    <row r="148" spans="3:14">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="3:14">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="3:14">
+      <c r="C150" s="35"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="3:14">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="3:14" ht="17.25" thickBot="1">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="3:14">
+      <c r="C153" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H153" s="41"/>
+    </row>
+    <row r="154" spans="3:14" ht="17.25" thickBot="1">
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154" s="43"/>
+    </row>
+    <row r="155" spans="3:14" ht="17.25" thickBot="1">
+      <c r="C155" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G155" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="35.1" customHeight="1">
-      <c r="C6" s="30">
+      <c r="H155" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="3:14" ht="44.25" customHeight="1">
+      <c r="C156" s="44">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D156" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E156" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="3:14" ht="64.5" customHeight="1" thickBot="1">
+      <c r="C157" s="45"/>
+      <c r="D157" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F157" s="47"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="48"/>
+    </row>
+    <row r="158" spans="3:14" ht="33" customHeight="1">
+      <c r="C158" s="49">
+        <v>2</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:14" ht="33" customHeight="1" thickBot="1">
+      <c r="C159" s="50"/>
+      <c r="D159" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="53"/>
+    </row>
+    <row r="160" spans="3:14" ht="66" customHeight="1">
+      <c r="C160" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G160" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="21" customHeight="1" thickBot="1">
-      <c r="C7" s="31"/>
-      <c r="D7" s="11" t="s">
+      <c r="H160" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
+      <c r="C161" s="50"/>
+      <c r="D161" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="3:8" ht="63.75" customHeight="1">
-      <c r="C8" s="30">
+      <c r="E161" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="53"/>
+    </row>
+    <row r="164" spans="3:8">
+      <c r="C164" s="35"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+    </row>
+    <row r="166" spans="3:8" ht="17.25" thickBot="1"/>
+    <row r="167" spans="3:8">
+      <c r="C167" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H167" s="41"/>
+    </row>
+    <row r="168" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H168" s="43"/>
+    </row>
+    <row r="169" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C169" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F169" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8">
+      <c r="C170" s="44">
+        <v>1</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E170" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" ht="131.25" customHeight="1" thickBot="1">
+      <c r="C171" s="45"/>
+      <c r="D171" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="48"/>
+    </row>
+    <row r="172" spans="3:8">
+      <c r="C172" s="44">
+        <v>2</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" ht="42.75" customHeight="1" thickBot="1">
+      <c r="C173" s="45"/>
+      <c r="D173" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="48"/>
+    </row>
+    <row r="176" spans="3:8">
+      <c r="C176" s="35"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="178" spans="3:8" ht="17.25" thickBot="1"/>
+    <row r="179" spans="3:8">
+      <c r="C179" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D179" s="38"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H179" s="41"/>
+    </row>
+    <row r="180" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C180" s="39"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H180" s="43"/>
+    </row>
+    <row r="181" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C181" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" ht="39.75" customHeight="1">
+      <c r="C182" s="44">
+        <v>1</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" ht="39" customHeight="1" thickBot="1">
+      <c r="C183" s="45"/>
+      <c r="D183" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F183" s="47"/>
+      <c r="G183" s="47"/>
+      <c r="H183" s="48"/>
+    </row>
+    <row r="186" spans="3:8">
+      <c r="C186" s="35"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+    </row>
+    <row r="188" spans="3:8" ht="17.25" thickBot="1"/>
+    <row r="189" spans="3:8">
+      <c r="C189" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D189" s="38"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H189" s="41"/>
+    </row>
+    <row r="190" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H190" s="43"/>
+    </row>
+    <row r="191" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C191" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8">
+      <c r="C192" s="44">
+        <v>1</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" ht="45" customHeight="1" thickBot="1">
+      <c r="C193" s="45"/>
+      <c r="D193" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="48"/>
+    </row>
+    <row r="196" spans="3:8">
+      <c r="C196" s="35"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+    </row>
+    <row r="198" spans="3:8" ht="17.25" thickBot="1"/>
+    <row r="199" spans="3:8">
+      <c r="C199" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D199" s="38"/>
+      <c r="E199" s="38"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H199" s="41"/>
+    </row>
+    <row r="200" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H200" s="43"/>
+    </row>
+    <row r="201" spans="3:8" ht="17.25" thickBot="1">
+      <c r="C201" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" ht="33" customHeight="1">
+      <c r="C202" s="44">
+        <v>1</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" ht="33" customHeight="1" thickBot="1">
+      <c r="C203" s="45"/>
+      <c r="D203" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F203" s="47"/>
+      <c r="G203" s="47"/>
+      <c r="H203" s="48"/>
+    </row>
+    <row r="204" spans="3:8" ht="63" customHeight="1">
+      <c r="C204" s="44">
+        <v>2</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C9" s="34"/>
-      <c r="D9" s="12" t="s">
+      <c r="G204" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" ht="38.25" customHeight="1" thickBot="1">
+      <c r="C205" s="45"/>
+      <c r="D205" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="3:8" ht="63.75" customHeight="1">
-      <c r="C10" s="30">
+      <c r="E205" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F205" s="47"/>
+      <c r="G205" s="47"/>
+      <c r="H205" s="48"/>
+    </row>
+    <row r="206" spans="3:8">
+      <c r="C206" s="44">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D206" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C11" s="34"/>
-      <c r="D11" s="12" t="s">
+      <c r="E206" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" ht="60" customHeight="1" thickBot="1">
+      <c r="C207" s="45"/>
+      <c r="D207" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="3:8" ht="69.75" customHeight="1">
-      <c r="C12" s="30">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C13" s="34"/>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="3:8" ht="53.25" customHeight="1">
-      <c r="C14" s="30">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C15" s="34"/>
-      <c r="D15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="3:8" ht="68.25" customHeight="1">
-      <c r="C16" s="30">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C17" s="34"/>
-      <c r="D17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="3:8" ht="44.25" customHeight="1">
-      <c r="C18" s="30">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C19" s="34"/>
-      <c r="D19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="3:8" ht="90" customHeight="1">
-      <c r="C20" s="30">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C21" s="34"/>
-      <c r="D21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="3:8" ht="57.75" customHeight="1">
-      <c r="C22" s="30">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C23" s="34"/>
-      <c r="D23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="3:8" ht="101.25" customHeight="1">
-      <c r="C24" s="30">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="46.5" customHeight="1" thickBot="1">
-      <c r="C25" s="34"/>
-      <c r="D25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="3:8" ht="41.25" customHeight="1">
-      <c r="C26" s="38">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="47.25" customHeight="1" thickBot="1">
-      <c r="C27" s="39"/>
-      <c r="D27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="3:8" ht="35.1" customHeight="1">
-      <c r="C28" s="30">
-        <v>12</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C29" s="34"/>
-      <c r="D29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="3:8" ht="48.75" customHeight="1">
-      <c r="C30" s="30">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C31" s="34"/>
-      <c r="D31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="3:8" ht="80.25" customHeight="1">
-      <c r="C32" s="30">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C33" s="34"/>
-      <c r="D33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="3:8" ht="47.25" customHeight="1">
-      <c r="C34" s="30">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C35" s="34"/>
-      <c r="D35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="3:8" ht="101.25" customHeight="1">
-      <c r="C36" s="30">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
-      <c r="C37" s="34"/>
-      <c r="D37" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="3:8" ht="60.75" customHeight="1">
-      <c r="C38" s="30">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C39" s="34"/>
-      <c r="D39" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-    </row>
-    <row r="40" spans="3:8" ht="35.1" customHeight="1">
-      <c r="C40" s="30">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C41" s="34"/>
-      <c r="D41" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="3:8" ht="35.1" customHeight="1">
-      <c r="C42" s="30">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="35.1" customHeight="1" thickBot="1">
-      <c r="C43" s="34"/>
-      <c r="D43" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
-    </row>
-    <row r="44" spans="3:8" ht="16.5" customHeight="1">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="3:8" s="18" customFormat="1"/>
-    <row r="48" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="49" spans="3:8">
-      <c r="C49" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="G49" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="48"/>
-    </row>
-    <row r="50" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="G50" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="50"/>
-    </row>
-    <row r="51" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C51" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="61.5" customHeight="1">
-      <c r="C52" s="30">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="C53" s="31"/>
-      <c r="D53" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
-    </row>
-    <row r="54" spans="3:8" ht="48" customHeight="1">
-      <c r="C54" s="30">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" ht="46.5" customHeight="1" thickBot="1">
-      <c r="C55" s="34"/>
-      <c r="D55" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="60" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="61" spans="3:8">
-      <c r="C61" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="G61" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="48"/>
-    </row>
-    <row r="62" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="G62" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="50"/>
-    </row>
-    <row r="63" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C63" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" ht="33" customHeight="1">
-      <c r="C64" s="30">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" ht="33" customHeight="1" thickBot="1">
-      <c r="C65" s="34"/>
-      <c r="D65" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-    </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="70" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="71" spans="3:8">
-      <c r="C71" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="G71" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="48"/>
-    </row>
-    <row r="72" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="G72" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="50"/>
-    </row>
-    <row r="73" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C73" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" ht="59.25" customHeight="1">
-      <c r="C74" s="30">
-        <v>1</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" ht="65.25" customHeight="1" thickBot="1">
-      <c r="C75" s="34"/>
-      <c r="D75" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-    </row>
-    <row r="76" spans="3:8" ht="33" customHeight="1">
-      <c r="C76" s="30">
-        <v>2</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="C77" s="34"/>
-      <c r="D77" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="37"/>
-    </row>
-    <row r="78" spans="3:8" ht="64.5" customHeight="1">
-      <c r="C78" s="30">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="42" customHeight="1" thickBot="1">
-      <c r="C79" s="34"/>
-      <c r="D79" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="37"/>
-    </row>
-    <row r="82" spans="3:8">
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="84" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="85" spans="3:8">
-      <c r="C85" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="G85" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="48"/>
-    </row>
-    <row r="86" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="G86" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H86" s="53"/>
-    </row>
-    <row r="87" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C87" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="49.5">
-      <c r="C88" s="30">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="55.5" customHeight="1" thickBot="1">
-      <c r="C89" s="34"/>
-      <c r="D89" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="29"/>
-    </row>
-    <row r="90" spans="3:8" ht="45" customHeight="1">
-      <c r="C90" s="30">
-        <v>2</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
-      <c r="C91" s="34"/>
-      <c r="D91" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
-    </row>
-    <row r="92" spans="3:8" ht="45" customHeight="1">
-      <c r="C92" s="30">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="33" customHeight="1" thickBot="1">
-      <c r="C93" s="34"/>
-      <c r="D93" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="29"/>
-    </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="98" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="99" spans="3:8">
-      <c r="C99" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="G99" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" s="48"/>
-    </row>
-    <row r="100" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="G100" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H100" s="53"/>
-    </row>
-    <row r="101" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C101" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" ht="33" customHeight="1">
-      <c r="C102" s="30">
-        <v>1</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="33" customHeight="1" thickBot="1">
-      <c r="C103" s="34"/>
-      <c r="D103" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="29"/>
-    </row>
-    <row r="104" spans="3:8" ht="33" customHeight="1">
-      <c r="C104" s="30">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="42" customHeight="1" thickBot="1">
-      <c r="C105" s="34"/>
-      <c r="D105" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="29"/>
-    </row>
-    <row r="106" spans="3:8" ht="43.5" customHeight="1">
-      <c r="C106" s="30">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
-      <c r="C107" s="34"/>
-      <c r="D107" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="29"/>
-    </row>
-    <row r="110" spans="3:8">
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-    </row>
-    <row r="112" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="113" spans="3:8">
-      <c r="C113" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
-      <c r="G113" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H113" s="48"/>
-    </row>
-    <row r="114" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="G114" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H114" s="53"/>
-    </row>
-    <row r="115" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C115" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="85.5" customHeight="1">
-      <c r="C116" s="30">
-        <v>1</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H116" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" ht="36" customHeight="1" thickBot="1">
-      <c r="C117" s="34"/>
-      <c r="D117" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="29"/>
-    </row>
-    <row r="120" spans="3:8">
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-    </row>
-    <row r="122" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="123" spans="3:8">
-      <c r="C123" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42"/>
-      <c r="G123" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H123" s="48"/>
-    </row>
-    <row r="124" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="51"/>
-      <c r="G124" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H124" s="53"/>
-    </row>
-    <row r="125" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C125" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G125" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8" ht="59.25" customHeight="1">
-      <c r="C126" s="30">
-        <v>1</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
-      <c r="C127" s="34"/>
-      <c r="D127" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="29"/>
-    </row>
-    <row r="128" spans="3:8" ht="44.1" customHeight="1">
-      <c r="C128" s="30">
-        <v>2</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" ht="44.1" customHeight="1" thickBot="1">
-      <c r="C129" s="34"/>
-      <c r="D129" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="29"/>
-    </row>
-    <row r="132" spans="3:8">
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-    </row>
-    <row r="134" spans="3:8" ht="17.25" thickBot="1"/>
-    <row r="135" spans="3:8">
-      <c r="C135" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42"/>
-      <c r="G135" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H135" s="48"/>
-    </row>
-    <row r="136" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
-      <c r="G136" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H136" s="53"/>
-    </row>
-    <row r="137" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C137" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G137" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H137" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" ht="39.950000000000003" customHeight="1">
-      <c r="C138" s="30">
-        <v>1</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C139" s="34"/>
-      <c r="D139" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="29"/>
-    </row>
-    <row r="140" spans="3:8" ht="69.75" customHeight="1">
-      <c r="C140" s="38">
-        <v>2</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H140" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="C141" s="39"/>
-      <c r="D141" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="60"/>
+      <c r="E207" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F207" s="47"/>
+      <c r="G207" s="47"/>
+      <c r="H207" s="48"/>
+    </row>
+    <row r="208" spans="3:8">
+      <c r="E208" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="C135:E136"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C123:E124"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="C113:E114"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E117:H117"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="C85:E86"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="C49:E50"/>
+  <mergeCells count="140">
+    <mergeCell ref="C189:E190"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E193:H193"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="E183:H183"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E171:H171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="C179:E180"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="E147:H147"/>
+    <mergeCell ref="C167:E168"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="E159:H159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C153:E154"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="E157:H157"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="E145:H145"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="C16:C17"/>
@@ -6027,18 +8516,94 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C51:E52"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E45:H45"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C101:E102"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C125:E126"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="C115:E116"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E119:H119"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="E143:H143"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E131:H131"/>
+    <mergeCell ref="C137:E138"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="C199:E200"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="E203:H203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="E205:H205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="E207:H207"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
